--- a/p2_p3_p123_pnames_goarchive.xlsx
+++ b/p2_p3_p123_pnames_goarchive.xlsx
@@ -58,28 +58,28 @@
     <t>periode</t>
   </si>
   <si>
+    <t>name_2</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>3D451C51-823B-4F35-83CF-BD9F642012D9</t>
+  </si>
+  <si>
     <t>name_4</t>
   </si>
   <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>3D451C51-823B-4F35-83CF-BD9F642012D9</t>
-  </si>
-  <si>
-    <t>name_1</t>
-  </si>
-  <si>
     <t>dd'd</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <t>name_5</t>
+    <t>name_6</t>
   </si>
   <si>
     <t>lll</t>

--- a/p2_p3_p123_pnames_goarchive.xlsx
+++ b/p2_p3_p123_pnames_goarchive.xlsx
@@ -58,7 +58,7 @@
     <t>periode</t>
   </si>
   <si>
-    <t>name_2</t>
+    <t>name_3</t>
   </si>
   <si>
     <t>t3</t>
@@ -70,7 +70,7 @@
     <t>3D451C51-823B-4F35-83CF-BD9F642012D9</t>
   </si>
   <si>
-    <t>name_4</t>
+    <t>name_1</t>
   </si>
   <si>
     <t>dd'd</t>
@@ -79,7 +79,7 @@
     <t>false</t>
   </si>
   <si>
-    <t>name_6</t>
+    <t>name_5</t>
   </si>
   <si>
     <t>lll</t>

--- a/p2_p3_p123_pnames_goarchive.xlsx
+++ b/p2_p3_p123_pnames_goarchive.xlsx
@@ -58,28 +58,28 @@
     <t>periode</t>
   </si>
   <si>
+    <t>name_2</t>
+  </si>
+  <si>
+    <t>t3</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>3D451C51-823B-4F35-83CF-BD9F642012D9</t>
+  </si>
+  <si>
     <t>name_3</t>
   </si>
   <si>
-    <t>t3</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>3D451C51-823B-4F35-83CF-BD9F642012D9</t>
-  </si>
-  <si>
-    <t>name_1</t>
-  </si>
-  <si>
     <t>dd'd</t>
   </si>
   <si>
     <t>false</t>
   </si>
   <si>
-    <t>name_5</t>
+    <t>name_4</t>
   </si>
   <si>
     <t>lll</t>

--- a/p2_p3_p123_pnames_goarchive.xlsx
+++ b/p2_p3_p123_pnames_goarchive.xlsx
@@ -70,7 +70,7 @@
     <t>3D451C51-823B-4F35-83CF-BD9F642012D9</t>
   </si>
   <si>
-    <t>name_3</t>
+    <t>name_1</t>
   </si>
   <si>
     <t>dd'd</t>
@@ -79,7 +79,7 @@
     <t>false</t>
   </si>
   <si>
-    <t>name_4</t>
+    <t>name_5</t>
   </si>
   <si>
     <t>lll</t>

--- a/p2_p3_p123_pnames_goarchive.xlsx
+++ b/p2_p3_p123_pnames_goarchive.xlsx
@@ -58,7 +58,7 @@
     <t>periode</t>
   </si>
   <si>
-    <t>name_2</t>
+    <t>name_5</t>
   </si>
   <si>
     <t>t3</t>
@@ -79,7 +79,7 @@
     <t>false</t>
   </si>
   <si>
-    <t>name_5</t>
+    <t>name_6</t>
   </si>
   <si>
     <t>lll</t>
